--- a/data/trans_dic/P3A_R1-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3008247065254438</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1943220323156465</v>
+        <v>0.1943220323156466</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06906084805840146</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1565899472826218</v>
+        <v>0.1539595348518622</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2137645469624529</v>
+        <v>0.2140412399781428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2763189073348832</v>
+        <v>0.2742018683962227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1608021302143298</v>
+        <v>0.15812196618817</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.053303782435167</v>
+        <v>0.05400398435288079</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09772907451523162</v>
+        <v>0.09727873552751228</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1250338920725562</v>
+        <v>0.1242866336810667</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07799175524494156</v>
+        <v>0.07725169980150273</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09906754360297729</v>
+        <v>0.09892395493673559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1603409982388176</v>
+        <v>0.1596809525131134</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1999193745479</v>
+        <v>0.2027468158613865</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.119078428373451</v>
+        <v>0.1205951502440337</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2202576113538109</v>
+        <v>0.2213905035798009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2701330539595216</v>
+        <v>0.2663359767822026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3308943332018778</v>
+        <v>0.3293068749032197</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2335715247315902</v>
+        <v>0.238219479746392</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08766042015207748</v>
+        <v>0.08807159490445578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1391921834973023</v>
+        <v>0.1399314063112874</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1645255854567743</v>
+        <v>0.1636580418841082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1202892180769311</v>
+        <v>0.1187210065288081</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.131429440400137</v>
+        <v>0.1326294368027582</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1920501976629633</v>
+        <v>0.196236660182153</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.23485159957596</v>
+        <v>0.2347628971916199</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1611001729238264</v>
+        <v>0.1638241258362504</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1893801568613862</v>
+        <v>0.1903335906180217</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2366672914735548</v>
+        <v>0.2366675686211859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2883144785382153</v>
+        <v>0.2903704569320545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2712184042964337</v>
+        <v>0.2727430648483847</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1034954857564037</v>
+        <v>0.1033222346444207</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1232684977692556</v>
+        <v>0.121495632230517</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1700092324276712</v>
+        <v>0.1690709197462811</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1782618384247117</v>
+        <v>0.1771450532059077</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1518855469926367</v>
+        <v>0.1519013387391076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1813149741054894</v>
+        <v>0.182774901913632</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2351044977537958</v>
+        <v>0.2331450606081354</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2285805977557803</v>
+        <v>0.2289474404505983</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2413537653321874</v>
+        <v>0.2401397162735429</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2948902933943277</v>
+        <v>0.2959065412641214</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3525594265610237</v>
+        <v>0.352323119433687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3373939849501538</v>
+        <v>0.3382378707970815</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1427266046150683</v>
+        <v>0.1438622301360899</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1669297818895522</v>
+        <v>0.1663596162854098</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2201420541793496</v>
+        <v>0.2178652787056502</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2179246844089547</v>
+        <v>0.2189224498754218</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.18655595177406</v>
+        <v>0.1839193901689338</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2179135830069431</v>
+        <v>0.2211110303156051</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2744855277651089</v>
+        <v>0.2723019047433789</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2672551114263972</v>
+        <v>0.266887520958187</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.239938323244102</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2550719560652243</v>
+        <v>0.2550719560652244</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1783790477881654</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1898475314608525</v>
+        <v>0.1896053854284847</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2650443850947416</v>
+        <v>0.2639411295789582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3229610815650926</v>
+        <v>0.3251165962928257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2818818649353405</v>
+        <v>0.2841006043215871</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1184745129816502</v>
+        <v>0.120440252613534</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1499114924309074</v>
+        <v>0.1503554229637524</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2055783757854714</v>
+        <v>0.2091421943741636</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2337639876076697</v>
+        <v>0.2335198026138484</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1613761360944669</v>
+        <v>0.1617094609083928</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2162157834724759</v>
+        <v>0.2126348568291328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2796669196371884</v>
+        <v>0.2782803221240393</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2648248234636908</v>
+        <v>0.2648608791676775</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2384243992517702</v>
+        <v>0.238648204742813</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3267503532062458</v>
+        <v>0.3303760633797682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3920852006549393</v>
+        <v>0.3898767341149651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3417390260119066</v>
+        <v>0.3436602327256769</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1612142021698132</v>
+        <v>0.165094530629374</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2024984996931394</v>
+        <v>0.2026611011687716</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2692261346867454</v>
+        <v>0.2733745851718787</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2802221750448307</v>
+        <v>0.2779782181439004</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1958856943545998</v>
+        <v>0.1956680717042429</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2563654231479532</v>
+        <v>0.2567959594344593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3272461737077982</v>
+        <v>0.3251173808285581</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3015689530118432</v>
+        <v>0.3035095363216802</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2590913195405005</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2911189222237572</v>
+        <v>0.2911189222237573</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1836947381621913</v>
+        <v>0.188562411134106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2895243058874396</v>
+        <v>0.2914433300998638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2780220015648696</v>
+        <v>0.2796789416553795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2788478839763853</v>
+        <v>0.2784339698145744</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1534283128878577</v>
+        <v>0.1532644430543694</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1530890785744121</v>
+        <v>0.1557442876214739</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1604965200325074</v>
+        <v>0.159953315917013</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2458813634673224</v>
+        <v>0.246201704850695</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.182740249598175</v>
+        <v>0.1821873502051062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.234922087376524</v>
+        <v>0.2356345064501524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2312604646309597</v>
+        <v>0.2318966840404517</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2690842064237077</v>
+        <v>0.2695287176653294</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2707221255537674</v>
+        <v>0.2703170194100177</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3784314606598749</v>
+        <v>0.3783299677431164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3635483024469128</v>
+        <v>0.3625720756510701</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3435506037465916</v>
+        <v>0.3438728960706418</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2384612858698174</v>
+        <v>0.2357781692355879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2290351217589246</v>
+        <v>0.2324675335309352</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2350200674089229</v>
+        <v>0.2333481233818599</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2955621342700891</v>
+        <v>0.2979413912774394</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2419779984245315</v>
+        <v>0.2407845559709785</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.295990178307145</v>
+        <v>0.2971759989922084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2905800630409263</v>
+        <v>0.292152801625971</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3107066984331802</v>
+        <v>0.3109144884496951</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1862949818058534</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2147958186914817</v>
+        <v>0.2147958186914818</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1643205446975488</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1952808557743423</v>
+        <v>0.1951610532469255</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2591107778057647</v>
+        <v>0.2591511187280134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3064569065911794</v>
+        <v>0.3056053905473964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2772512246648021</v>
+        <v>0.2757018776661717</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1095915489517489</v>
+        <v>0.1096823123053291</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.138016014179073</v>
+        <v>0.137734814684139</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1738654201901127</v>
+        <v>0.1732706634821872</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2030388964782754</v>
+        <v>0.2022942894783649</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1544730727035183</v>
+        <v>0.155123345198375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1999027789395056</v>
+        <v>0.2002815405386792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2424477331121645</v>
+        <v>0.2430266980998939</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.24247000985181</v>
+        <v>0.2427515145972464</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2255368923805767</v>
+        <v>0.2249131475581018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2907275260606624</v>
+        <v>0.2913339010080603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3397442873846803</v>
+        <v>0.3404232157776339</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3101377640364886</v>
+        <v>0.3087435294356443</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1317714896254728</v>
+        <v>0.1320384437619699</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1628179628502051</v>
+        <v>0.1627953788593141</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2002088287532632</v>
+        <v>0.1992905848758519</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.22701858897828</v>
+        <v>0.2262848968075425</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.174158371726254</v>
+        <v>0.1741804759224727</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2210441016421038</v>
+        <v>0.2205496622124053</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2632586745426911</v>
+        <v>0.2638574617285911</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2626793516350192</v>
+        <v>0.263930044861291</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91471</v>
+        <v>89934</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>222930</v>
+        <v>223218</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>310416</v>
+        <v>308038</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>80100</v>
+        <v>78765</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>49083</v>
+        <v>49727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>109352</v>
+        <v>108848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>156998</v>
+        <v>156059</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48590</v>
+        <v>48129</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>149092</v>
+        <v>148876</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>346625</v>
+        <v>345199</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>475616</v>
+        <v>482342</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>133504</v>
+        <v>135204</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128662</v>
+        <v>129323</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>281715</v>
+        <v>277755</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>371726</v>
+        <v>369943</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>116349</v>
+        <v>118664</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>80719</v>
+        <v>81097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>155746</v>
+        <v>156573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>206585</v>
+        <v>205496</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>74942</v>
+        <v>73965</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>197795</v>
+        <v>199601</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>415175</v>
+        <v>424225</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>558721</v>
+        <v>558510</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>180616</v>
+        <v>183670</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>204132</v>
+        <v>205159</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>231241</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>260747</v>
+        <v>262606</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>260407</v>
+        <v>261871</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>109345</v>
+        <v>109162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>134888</v>
+        <v>132948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>171110</v>
+        <v>170166</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>198793</v>
+        <v>197547</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>324187</v>
+        <v>324221</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>375564</v>
+        <v>378588</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>449251</v>
+        <v>445507</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>474375</v>
+        <v>475137</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>260154</v>
+        <v>258845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>288129</v>
+        <v>289122</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>318849</v>
+        <v>318635</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>323944</v>
+        <v>324755</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>150794</v>
+        <v>151994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>182665</v>
+        <v>182041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>221567</v>
+        <v>219276</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>243024</v>
+        <v>244136</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>398188</v>
+        <v>392561</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>451372</v>
+        <v>457995</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>524503</v>
+        <v>520330</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>554637</v>
+        <v>553874</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>212932</v>
+        <v>212660</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>234595</v>
+        <v>233618</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>266042</v>
+        <v>267818</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>294983</v>
+        <v>297305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>117620</v>
+        <v>119571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>131142</v>
+        <v>131530</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>158299</v>
+        <v>161043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>244901</v>
+        <v>244645</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>341211</v>
+        <v>341915</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>380521</v>
+        <v>374218</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>445727</v>
+        <v>443517</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>554575</v>
+        <v>554651</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>267415</v>
+        <v>267666</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>289212</v>
+        <v>292421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>322984</v>
+        <v>321164</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>357623</v>
+        <v>359633</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>160051</v>
+        <v>163904</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>177145</v>
+        <v>177287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>207309</v>
+        <v>210503</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>293573</v>
+        <v>291222</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>414177</v>
+        <v>413717</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>451180</v>
+        <v>451938</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>521557</v>
+        <v>518165</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>631522</v>
+        <v>635586</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>81986</v>
+        <v>84159</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>145637</v>
+        <v>146603</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>140874</v>
+        <v>141714</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>272001</v>
+        <v>271597</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>52211</v>
+        <v>52155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>69309</v>
+        <v>70511</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>78595</v>
+        <v>78329</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>223837</v>
+        <v>224128</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>143746</v>
+        <v>143311</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>224529</v>
+        <v>225210</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>230427</v>
+        <v>231061</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>507437</v>
+        <v>508275</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>120828</v>
+        <v>120647</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>190360</v>
+        <v>190309</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>184210</v>
+        <v>183716</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>335115</v>
+        <v>335429</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>81147</v>
+        <v>80234</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>103692</v>
+        <v>105246</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>115089</v>
+        <v>114270</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>269064</v>
+        <v>271229</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>190343</v>
+        <v>189405</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>282895</v>
+        <v>284028</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>289533</v>
+        <v>291100</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>585928</v>
+        <v>586320</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>630747</v>
+        <v>630360</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>883072</v>
+        <v>883209</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1029156</v>
+        <v>1026297</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>964887</v>
+        <v>959495</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>362794</v>
+        <v>363094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>488676</v>
+        <v>487681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>612325</v>
+        <v>610230</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>750466</v>
+        <v>747714</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1010310</v>
+        <v>1014563</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1389086</v>
+        <v>1391718</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1668058</v>
+        <v>1672041</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1740053</v>
+        <v>1742073</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>728472</v>
+        <v>726458</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>990824</v>
+        <v>992891</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1140943</v>
+        <v>1143223</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1079339</v>
+        <v>1074486</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>436219</v>
+        <v>437102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>576493</v>
+        <v>576413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>705102</v>
+        <v>701868</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>839100</v>
+        <v>836388</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1139059</v>
+        <v>1139204</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1535993</v>
+        <v>1532557</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1811239</v>
+        <v>1815358</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1885082</v>
+        <v>1894058</v>
       </c>
     </row>
     <row r="24">
